--- a/biology/Médecine/Syndrome_de_Gardner/Syndrome_de_Gardner.xlsx
+++ b/biology/Médecine/Syndrome_de_Gardner/Syndrome_de_Gardner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Gardner est un syndrome associant :
 une polypose recto-colique familiale
 une ou plusieurs autres tumeurs d'autres tissus
 ostéome
-L'ostéome peut être périphérique ou central. bien que touchant toutes les classes d'âge, la tumeur atteint les personnes âgées[1].
+L'ostéome peut être périphérique ou central. bien que touchant toutes les classes d'âge, la tumeur atteint les personnes âgées.
 fibrome
 lipome
 myome
@@ -523,7 +535,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1951, Eldon John Gardner (1909-1989), un professeur de génétique, fut le premier à décrire ce syndrome. Un étudiant avait mis Gardner en relation avec une grande famille de l'Utah touchée par ce syndrome.
 </t>
